--- a/YAML-CREATION/test/test_sheet.xlsx
+++ b/YAML-CREATION/test/test_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\Commissioning\GCP_ONBOARDING\bos-tools-dbo-jinesh\bos-onboarding\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B2FDF-3D00-4D3C-B476-15ED7B9F8317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E42BCD-18AB-4764-922E-F394132D7A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">assets!$A$1:$U$995</definedName>
     <definedName name="Z_8F6BD52A_E505_4548_B6D8_1C41231C888E_.wvu.FilterData" localSheetId="1" hidden="1">assets!$A$1:$U$995</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{8F6BD52A-E505-4548-B6D8-1C41231C888E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
@@ -1519,9 +1519,9 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1543,7 @@
     <col min="15" max="15" width="27" customWidth="1"/>
     <col min="16" max="16" width="23.85546875" customWidth="1"/>
     <col min="17" max="17" width="29.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="21" max="21" width="16.85546875" customWidth="1"/>
   </cols>
@@ -2508,7 +2508,7 @@
   <customSheetViews>
     <customSheetView guid="{8F6BD52A-E505-4548-B6D8-1C41231C888E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:U995" xr:uid="{EEEBA1F4-EAC7-4C86-8AE8-2E5047F51C30}"/>
+      <autoFilter ref="A1:U995" xr:uid="{17534E93-75E1-41AF-98F4-3C403350136B}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,8 +2522,8 @@
   </sheetPr>
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5456,7 +5456,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/YAML-CREATION/test/test_sheet.xlsx
+++ b/YAML-CREATION/test/test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E42BCD-18AB-4764-922E-F394132D7A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16088DB9-2479-4C50-8360-E06A6BD21750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -1519,7 +1519,7 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
@@ -2508,7 +2508,7 @@
   <customSheetViews>
     <customSheetView guid="{8F6BD52A-E505-4548-B6D8-1C41231C888E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:U995" xr:uid="{17534E93-75E1-41AF-98F4-3C403350136B}"/>
+      <autoFilter ref="A1:U995" xr:uid="{80C15E04-9BEE-44A5-B1A2-70D4623A9385}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,9 +2522,9 @@
   </sheetPr>
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/YAML-CREATION/test/test_sheet.xlsx
+++ b/YAML-CREATION/test/test_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16088DB9-2479-4C50-8360-E06A6BD21750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3393C16-F783-48C7-BA11-69A233D41B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2508,7 +2508,7 @@
   <customSheetViews>
     <customSheetView guid="{8F6BD52A-E505-4548-B6D8-1C41231C888E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:U995" xr:uid="{80C15E04-9BEE-44A5-B1A2-70D4623A9385}"/>
+      <autoFilter ref="A1:U995" xr:uid="{31794319-0218-4509-9C50-B4A94724C35D}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,8 +2523,8 @@
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/YAML-CREATION/test/test_sheet.xlsx
+++ b/YAML-CREATION/test/test_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3393C16-F783-48C7-BA11-69A233D41B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18755FAE-FE42-45BD-9F40-326FF94EA5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2508,7 +2508,7 @@
   <customSheetViews>
     <customSheetView guid="{8F6BD52A-E505-4548-B6D8-1C41231C888E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:U995" xr:uid="{31794319-0218-4509-9C50-B4A94724C35D}"/>
+      <autoFilter ref="A1:U995" xr:uid="{D6570AF5-F776-4405-848D-88EE3D674A12}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,8 +2523,8 @@
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5455,7 +5455,7 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
